--- a/bugs/26/bug-source.xlsx
+++ b/bugs/26/bug-source.xlsx
@@ -134,16 +134,19 @@
     <t>openldap-2.4.44-7.fc25.x86_64</t>
   </si>
   <si>
-    <t>crypto-policies-20160921-2.git75b9b04.fc25.noarch, firefox-50.0.2-1.fc25.x86_64, nss-3.27.0-1.3.fc25.x86_64</t>
-  </si>
-  <si>
     <t>Security</t>
   </si>
   <si>
     <t>heap overflow security issue in date(1) and touch(1)</t>
   </si>
   <si>
-    <t>coreutils-8.27-4.fc27, coreutils-8.27-4.fc26</t>
+    <t>crypto-policies-20160921-2.git75b9b04.fc25.noarch, 
+firefox-50.0.2-1.fc25.x86_64, 
+nss-3.27.0-1.3.fc25.x86_64</t>
+  </si>
+  <si>
+    <t>coreutils-8.27-4.fc27, 
+coreutils-8.27-4.fc26</t>
   </si>
 </sst>
 </file>
@@ -179,8 +182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +467,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,7 +686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1404439</v>
       </c>
@@ -696,8 +702,8 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
-        <v>35</v>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1444774</v>
       </c>
@@ -783,12 +789,12 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
